--- a/calibracao_sensores.xlsx
+++ b/calibracao_sensores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saulo\Desktop\codigospython\GitHub\DesafioETL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saulo\Desktop\codigospython\GitHub\DesafioETLbootCampSantander\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C666D2-9C23-483A-9D53-602FC21D1891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74EA3EF-5092-49AE-AD09-D0144B25C299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
